--- a/biology/Zoologie/Ixamatus_musgravei/Ixamatus_musgravei.xlsx
+++ b/biology/Zoologie/Ixamatus_musgravei/Ixamatus_musgravei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ixamatus musgravei est une espèce d'araignées mygalomorphes de la famille des Microstigmatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ixamatus musgravei est une espèce d'araignées mygalomorphes de la famille des Microstigmatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie[1]. Elle se rencontre sur le parc national de la Nouvelle-Angleterre et le parc national de Gibraltar Range[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie. Elle se rencontre sur le parc national de la Nouvelle-Angleterre et le parc national de Gibraltar Range.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 6,69 mm de long sur 5,63 mm et l'abdomen 6,75 mm de long sur 4,19 mm et la carapace de la femelle paratype mesure 5,25 mm de long sur 4,13 mm et l'abdomen 5,31 mm de long sur 3,13 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 6,69 mm de long sur 5,63 mm et l'abdomen 6,75 mm de long sur 4,19 mm et la carapace de la femelle paratype mesure 5,25 mm de long sur 4,13 mm et l'abdomen 5,31 mm de long sur 3,13 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Anthony Musgrave[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Anthony Musgrave.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven, 1982 : Systematics of the Australian mygalomorph spider genus Ixamatus Simon (Diplurinae: Dipluridae: Chelicerata). Australian Journal of Zoology, vol. 30, no 6, p. 1035-1067.</t>
         </is>
